--- a/financial_files/excel/BA.xlsx
+++ b/financial_files/excel/BA.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data" ref="A1:O122" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data_scraped" ref="A1:O122" headerRowCount="1">
   <autoFilter ref="A1:O122"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Category"/>

--- a/financial_files/excel/BA.xlsx
+++ b/financial_files/excel/BA.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_statement_api" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rule1_results" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -156,6 +158,47 @@
     <tableColumn id="13" name="2018"/>
     <tableColumn id="14" name="2019"/>
     <tableColumn id="15" name="TTM"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="financial_statement_api" displayName="financial_statement_api" ref="A1:U23" headerRowCount="1">
+  <autoFilter ref="A1:U23"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="API Parameter"/>
+    <tableColumn id="2" name="2000"/>
+    <tableColumn id="3" name="2001"/>
+    <tableColumn id="4" name="2002"/>
+    <tableColumn id="5" name="2003"/>
+    <tableColumn id="6" name="2004"/>
+    <tableColumn id="7" name="2005"/>
+    <tableColumn id="8" name="2006"/>
+    <tableColumn id="9" name="2007"/>
+    <tableColumn id="10" name="2008"/>
+    <tableColumn id="11" name="2009"/>
+    <tableColumn id="12" name="2010"/>
+    <tableColumn id="13" name="2011"/>
+    <tableColumn id="14" name="2012"/>
+    <tableColumn id="15" name="2013"/>
+    <tableColumn id="16" name="2014"/>
+    <tableColumn id="17" name="2015"/>
+    <tableColumn id="18" name="2016"/>
+    <tableColumn id="19" name="2017"/>
+    <tableColumn id="20" name="2018"/>
+    <tableColumn id="21" name="2019"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="rule1_results" displayName="rule1_results" ref="A1:B55" headerRowCount="1">
+  <autoFilter ref="A1:B55"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Rule #1 Metric"/>
+    <tableColumn id="2" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7218,4 +7261,2255 @@
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>API Parameter</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>revenue</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>51321000000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>58198000000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>54061000000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>50256000000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>52457000000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>53621000000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>61530000000</v>
+      </c>
+      <c r="I2" t="n">
+        <v>66387000000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>60909000000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>68281000000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>64306000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68735000000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>81698000000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>86623000000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>90762000000</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>96114000000</v>
+      </c>
+      <c r="R2" t="n">
+        <v>93496000000</v>
+      </c>
+      <c r="S2" t="n">
+        <v>94005000000</v>
+      </c>
+      <c r="T2" t="n">
+        <v>101127000000</v>
+      </c>
+      <c r="U2" t="n">
+        <v>76559000000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>operating_income</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3649000000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3917000000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3418000000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1276000000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1987000000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2204000000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3240000000</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5792000000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3946000000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2120000000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4698000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5521000000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6018000000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6328000000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>7196000000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>7170000000</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6231000000</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10119000000</v>
+      </c>
+      <c r="T3" t="n">
+        <v>11801000000</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-2662000000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pretax_income</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2999000000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3564000000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3180000000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>500000000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1960000000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2819000000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3194000000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6118000000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3995000000</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1731000000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4507000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5393000000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5910000000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6232000000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>7137000000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>7155000000</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5783000000</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10107000000</v>
+      </c>
+      <c r="T4" t="n">
+        <v>11604000000</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-2259000000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>income_tax</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-871000000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-738000000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-861000000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>185000000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-140000000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-257000000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-988000000</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-2060000000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-1341000000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-396000000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-1196000000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-1382000000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-2007000000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-1646000000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-1691000000</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-1979000000</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-749000000</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-1649000000</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-1144000000</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1623000000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>eps_diluted</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="P6" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="S6" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="T6" t="n">
+        <v>17.85</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-1.12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>shares_diluted</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>871300000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>829300000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>808400000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>808900000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>813000000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>802900000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>787600000</v>
+      </c>
+      <c r="I7" t="n">
+        <v>772500000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>729000000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>713400000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>741200000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>750600000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>761500000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>767600000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>736700000</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>695000000</v>
+      </c>
+      <c r="R7" t="n">
+        <v>642800000</v>
+      </c>
+      <c r="S7" t="n">
+        <v>610000000</v>
+      </c>
+      <c r="T7" t="n">
+        <v>585500000</v>
+      </c>
+      <c r="U7" t="n">
+        <v>565400000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>total_assets</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>42677000000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>48978000000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>52342000000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>52986000000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>56224000000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>59996000000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>51794000000</v>
+      </c>
+      <c r="I8" t="n">
+        <v>58986000000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>53779000000</v>
+      </c>
+      <c r="K8" t="n">
+        <v>62053000000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>68565000000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>79986000000</v>
+      </c>
+      <c r="N8" t="n">
+        <v>88896000000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>92663000000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>92921000000</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>94408000000</v>
+      </c>
+      <c r="R8" t="n">
+        <v>89997000000</v>
+      </c>
+      <c r="S8" t="n">
+        <v>112362000000</v>
+      </c>
+      <c r="T8" t="n">
+        <v>117359000000</v>
+      </c>
+      <c r="U8" t="n">
+        <v>133625000000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>st_debt</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1232000000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1399000000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1814000000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1144000000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1321000000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1189000000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1381000000</v>
+      </c>
+      <c r="I9" t="n">
+        <v>762000000</v>
+      </c>
+      <c r="J9" t="n">
+        <v>560000000</v>
+      </c>
+      <c r="K9" t="n">
+        <v>707000000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>948000000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2256000000</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1340000000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1495000000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>865000000</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1181000000</v>
+      </c>
+      <c r="R9" t="n">
+        <v>327000000</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1283000000</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3133000000</v>
+      </c>
+      <c r="U9" t="n">
+        <v>7269000000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>lt_debt</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7567000000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10866000000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>12589000000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>13299000000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10879000000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9538000000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8157000000</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7455000000</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6952000000</v>
+      </c>
+      <c r="K10" t="n">
+        <v>12217000000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>11473000000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>9880000000</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8890000000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>7989000000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>8044000000</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>8633000000</v>
+      </c>
+      <c r="R10" t="n">
+        <v>9487000000</v>
+      </c>
+      <c r="S10" t="n">
+        <v>9696000000</v>
+      </c>
+      <c r="T10" t="n">
+        <v>10558000000</v>
+      </c>
+      <c r="U10" t="n">
+        <v>19804000000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>total_equity</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11020000000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10825000000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7696000000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8139000000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>11286000000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>11059000000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4739000000</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9004000000</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-1142000000</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2225000000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2862000000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3608000000</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5967000000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>14997000000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>8790000000</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>6397000000</v>
+      </c>
+      <c r="R11" t="n">
+        <v>877000000</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1713000000</v>
+      </c>
+      <c r="T11" t="n">
+        <v>410000000</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-8300000000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>cf_cfo</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5942000000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3894000000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4236000000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2709000000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3504000000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7000000000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7499000000</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9584000000</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-401000000</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5603000000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2952000000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4023000000</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7508000000</v>
+      </c>
+      <c r="O12" t="n">
+        <v>8179000000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>8858000000</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>9363000000</v>
+      </c>
+      <c r="R12" t="n">
+        <v>10496000000</v>
+      </c>
+      <c r="S12" t="n">
+        <v>13346000000</v>
+      </c>
+      <c r="T12" t="n">
+        <v>15322000000</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-2446000000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>cfi_ppe_net</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-763000000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-1189000000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-1001000000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-741000000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-978000000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-1496000000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-1456000000</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-1672000000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-1640000000</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-1159000000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-1062000000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-1619000000</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-1606000000</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-2047000000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-2202000000</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-2408000000</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-2575000000</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-1647000000</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-1602000000</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-1500000000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>roic</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1264</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0233</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0979</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.1403</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.1805</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.4443</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.3978</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.2826</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.5039</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.6519</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.4238</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.4999</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.9196</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.4182</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.7946</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.9632</v>
+      </c>
+      <c r="U14" t="n">
+        <v>-0.0775</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>revenue_growth</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.115</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1339</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.07099999999999999</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.0703</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0437</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0221</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.1474</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0789</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.0825</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.0582</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0688</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.1885</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.0602</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.0477</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.0589</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-0.0272</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.0054</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.0757</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-0.2429</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>eps_diluted_growth</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3975</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.8211000000000001</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.5842</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.3913</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.1093</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8526</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0.3049</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.4986</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.4184</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.043</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.1663</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.2382</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.0081</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.0524</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.7688</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.2888</v>
+      </c>
+      <c r="U16" t="n">
+        <v>-1.0627</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>total_equity_growth</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.0385</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.0176</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.289</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0575</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.3866</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.0201</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.5714</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.8999</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-1.1268</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.9483</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.2862</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.2606</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.6538</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.5133</v>
+      </c>
+      <c r="P17" t="n">
+        <v>-0.4138</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>-0.2722</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-0.8629</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.9532</v>
+      </c>
+      <c r="T17" t="n">
+        <v>-0.7606000000000001</v>
+      </c>
+      <c r="U17" t="n">
+        <v>-21.2439</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>cfo_growth</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.0453</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.3446</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0878</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.3604</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.2934</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.9977</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0712</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-1.0418</v>
+      </c>
+      <c r="K18" t="n">
+        <v>14.9725</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.4731</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.3628</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.8662</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.0893</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.2715</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-1.1596</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>fcf_growth</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.0314</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.4776</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1959</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.3916</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.2835</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.1789</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0979</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.3092</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1.2579</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.1773</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-0.5747</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.2719</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.455</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.0389</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.0854</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.0449</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.1388</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.4769</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.1727</v>
+      </c>
+      <c r="U19" t="n">
+        <v>-1.2876</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>fcf</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5179000000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2705000000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3235000000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1968000000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2526000000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5504000000</v>
+      </c>
+      <c r="H20" t="n">
+        <v>6043000000</v>
+      </c>
+      <c r="I20" t="n">
+        <v>7912000000</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-2041000000</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4444000000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1890000000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2404000000</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5902000000</v>
+      </c>
+      <c r="O20" t="n">
+        <v>6132000000</v>
+      </c>
+      <c r="P20" t="n">
+        <v>6656000000</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>6955000000</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7921000000</v>
+      </c>
+      <c r="S20" t="n">
+        <v>11699000000</v>
+      </c>
+      <c r="T20" t="n">
+        <v>13720000000</v>
+      </c>
+      <c r="U20" t="n">
+        <v>-3946000000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>book_value_per_share</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>12.6477</v>
+      </c>
+      <c r="C21" t="n">
+        <v>13.0531</v>
+      </c>
+      <c r="D21" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10.0618</v>
+      </c>
+      <c r="F21" t="n">
+        <v>13.8819</v>
+      </c>
+      <c r="G21" t="n">
+        <v>13.7738</v>
+      </c>
+      <c r="H21" t="n">
+        <v>6.017</v>
+      </c>
+      <c r="I21" t="n">
+        <v>11.6556</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1.5665</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.1188</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.8613</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4.8068</v>
+      </c>
+      <c r="N21" t="n">
+        <v>7.8358</v>
+      </c>
+      <c r="O21" t="n">
+        <v>19.5375</v>
+      </c>
+      <c r="P21" t="n">
+        <v>11.9315</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>9.2043</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.3643</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.8081</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.7002</v>
+      </c>
+      <c r="U21" t="n">
+        <v>-14.6798</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>market_cap</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>57782010000</v>
+      </c>
+      <c r="C22" t="n">
+        <v>30957841320</v>
+      </c>
+      <c r="D22" t="n">
+        <v>26391274220</v>
+      </c>
+      <c r="E22" t="n">
+        <v>33764464300</v>
+      </c>
+      <c r="F22" t="n">
+        <v>43082165680</v>
+      </c>
+      <c r="G22" t="n">
+        <v>56203940800</v>
+      </c>
+      <c r="H22" t="n">
+        <v>70071572760</v>
+      </c>
+      <c r="I22" t="n">
+        <v>67173128240</v>
+      </c>
+      <c r="J22" t="n">
+        <v>31003979330</v>
+      </c>
+      <c r="K22" t="n">
+        <v>40975110880</v>
+      </c>
+      <c r="L22" t="n">
+        <v>47983002340</v>
+      </c>
+      <c r="M22" t="n">
+        <v>54624111750</v>
+      </c>
+      <c r="N22" t="n">
+        <v>56944352160</v>
+      </c>
+      <c r="O22" t="n">
+        <v>102009759710</v>
+      </c>
+      <c r="P22" t="n">
+        <v>91860505440</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>96387164160</v>
+      </c>
+      <c r="R22" t="n">
+        <v>96078223360</v>
+      </c>
+      <c r="S22" t="n">
+        <v>174303311490</v>
+      </c>
+      <c r="T22" t="n">
+        <v>183064222500</v>
+      </c>
+      <c r="U22" t="n">
+        <v>183373235840</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>price_to_earnings</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>27.1532</v>
+      </c>
+      <c r="C23" t="n">
+        <v>10.9507</v>
+      </c>
+      <c r="D23" t="n">
+        <v>53.6408</v>
+      </c>
+      <c r="E23" t="n">
+        <v>47.0257</v>
+      </c>
+      <c r="F23" t="n">
+        <v>23.0139</v>
+      </c>
+      <c r="G23" t="n">
+        <v>21.8522</v>
+      </c>
+      <c r="H23" t="n">
+        <v>31.635</v>
+      </c>
+      <c r="I23" t="n">
+        <v>16.4882</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11.6032</v>
+      </c>
+      <c r="K23" t="n">
+        <v>31.231</v>
+      </c>
+      <c r="L23" t="n">
+        <v>14.5095</v>
+      </c>
+      <c r="M23" t="n">
+        <v>13.5948</v>
+      </c>
+      <c r="N23" t="n">
+        <v>14.6011</v>
+      </c>
+      <c r="O23" t="n">
+        <v>22.2485</v>
+      </c>
+      <c r="P23" t="n">
+        <v>16.8675</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>18.6219</v>
+      </c>
+      <c r="R23" t="n">
+        <v>19.0858</v>
+      </c>
+      <c r="S23" t="n">
+        <v>20.6081</v>
+      </c>
+      <c r="T23" t="n">
+        <v>17.5013</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-288.3226</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Rule #1 Metric</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ROIC - 10-year</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>32.38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ROIC - 5-year</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>40.10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ROIC - 3-year</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>39.26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ROIC - 1-year</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-24.37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 10-year</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>95.10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 5-year</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>140.36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 3-year</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>156.01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 1-year</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-7.75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-7.63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-18.68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>-21.82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>-51.16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>-12.13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>-34.96%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>-51.91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>-94.43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1.15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>-3.35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>-6.44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>-24.29%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>-10.77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>-22.97%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>-37.04%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>-81.74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>-13.55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>-29.20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>-45.83%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>-87.90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Debt - Current Long-Term Debt</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>19804000000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Debt - Payoff Possible</t>
+        </is>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>current_eps</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-1.12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>analyst_growth_rate</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.1233</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>equity_growth_rate</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.2482644869802476</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>eps_growth_rate</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.2482644869802476</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>future_eps</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-10.2868918306455</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>average_historical_pe</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>17.51538888888889</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>default_pe</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-49.65289739604952</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>future_pe</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-49.65289739604952</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>future_market_price</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>510.7739845913008</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>sticker_price</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>126.2555172758951</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>margin_of_safety</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>63.12775863794757</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>shortName</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Boeing Company (The)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>currency</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>market</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>us_market</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>exchange</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>NYQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>sector</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>industry</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Aerospace &amp; Defense</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>website</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>http://www.boeing.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>marketCap</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>114441519104</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>20905165</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>forwardPE</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>149.05882</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>previousClose</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>214.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>